--- a/Projects.xlsx
+++ b/Projects.xlsx
@@ -2,22 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\EFMCODER\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069D9A2-5937-4401-8107-3251CB93592F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB2163E-4BDB-46F6-B905-C66AC9168145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="16637" windowHeight="8837" activeTab="2" xr2:uid="{6B2B9060-E0B7-4674-A282-88032FD5C6E7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{6B2B9060-E0B7-4674-A282-88032FD5C6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tip Calculator" sheetId="1" r:id="rId1"/>
     <sheet name="pds" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
-    <sheet name="pds-purpose" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Bill">'Tip Calculator'!$B$1</definedName>
@@ -308,7 +307,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +372,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -401,7 +412,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -453,7 +464,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,6 +478,9 @@
     <xf numFmtId="8" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,8 +493,19 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -885,15 +909,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6510E3B8-D79F-49C8-8F01-266774B0541E}">
-  <dimension ref="A1:D9"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -905,7 +930,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -913,7 +938,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -921,7 +946,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -929,7 +954,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -938,7 +963,7 @@
         <v>6.3000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -947,8 +972,6 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.85"/>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.85"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -956,42 +979,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E16E7FB-386C-477E-99F5-5E4A397E94BE}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BJ129"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.19140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.15234375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.20703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.15625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.57421875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.734375" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.23046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.65234375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.69140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.921875" style="6"/>
-    <col min="13" max="13" width="8.921875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.921875" style="6"/>
-    <col min="15" max="22" width="8.921875" style="6" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.921875" style="6"/>
-    <col min="24" max="24" width="1.65234375" style="6" customWidth="1"/>
-    <col min="25" max="36" width="8.65234375" style="6" customWidth="1"/>
-    <col min="37" max="37" width="1.65234375" style="6" customWidth="1"/>
-    <col min="38" max="49" width="8.921875" style="6" customWidth="1"/>
-    <col min="50" max="50" width="1.65234375" style="6" customWidth="1"/>
-    <col min="51" max="16384" width="8.921875" style="6"/>
+    <col min="7" max="7" width="10.734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.20703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.62890625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.89453125" style="6"/>
+    <col min="13" max="13" width="8.89453125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.89453125" style="6"/>
+    <col min="15" max="22" width="8.89453125" style="6" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.89453125" style="6"/>
+    <col min="24" max="24" width="1.62890625" style="6" customWidth="1"/>
+    <col min="25" max="36" width="8.62890625" style="6" customWidth="1"/>
+    <col min="37" max="37" width="1.62890625" style="6" customWidth="1"/>
+    <col min="38" max="49" width="8.89453125" style="6" customWidth="1"/>
+    <col min="50" max="50" width="1.62890625" style="6" customWidth="1"/>
+    <col min="51" max="16384" width="8.89453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -1205,7 +1229,7 @@
         <v>136.41999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
@@ -1264,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="15.9" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
@@ -1291,7 +1315,7 @@
       <c r="AI3" s="23"/>
       <c r="AJ3" s="23"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
       <c r="E4" s="25"/>
       <c r="G4" s="25"/>
       <c r="L4" s="36" t="s">
@@ -1351,7 +1375,7 @@
       <c r="BI4" s="38"/>
       <c r="BJ4" s="38"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
       <c r="E5" s="25"/>
       <c r="G5" s="25"/>
       <c r="Y5" s="23"/>
@@ -1367,7 +1391,7 @@
       <c r="AI5" s="23"/>
       <c r="AJ5" s="23"/>
     </row>
-    <row r="6" spans="1:62" s="12" customFormat="1" ht="45.65" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:62" s="12" customFormat="1" ht="44.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
@@ -1401,7 +1425,7 @@
       <c r="K6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <v>43466</v>
       </c>
       <c r="M6" s="20">
@@ -1440,7 +1464,7 @@
       <c r="X6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="31">
         <v>43466</v>
       </c>
       <c r="Z6" s="22">
@@ -1479,7 +1503,7 @@
       <c r="AK6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AL6" s="33" t="s">
+      <c r="AL6" s="32" t="s">
         <v>19</v>
       </c>
       <c r="AM6" s="13" t="s">
@@ -1518,7 +1542,7 @@
       <c r="AX6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AY6" s="33" t="s">
+      <c r="AY6" s="32" t="s">
         <v>19</v>
       </c>
       <c r="AZ6" s="14" t="s">
@@ -1555,36 +1579,36 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.75">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="41">
         <v>60</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="41">
         <v>60</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="42">
         <v>43282</v>
       </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="34">
+      <c r="F7" s="41">
+        <v>0</v>
+      </c>
+      <c r="G7" s="43">
         <v>43466</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="44">
         <v>6</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <f t="shared" ref="I7:I13" si="5">EDATE(G7,H7)-1</f>
         <v>43646</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="34">
         <f t="shared" ref="J7:J13" si="6">B7/H7</f>
         <v>10</v>
       </c>
@@ -1784,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="7"/>
-      <c r="Y8" s="30">
+      <c r="Y8" s="29">
         <f t="shared" ref="Y8:Y13" si="12">IF(Y$6&lt;$G8,0,IF(Y$6&lt;=$I8,$J8,0))</f>
         <v>0</v>
       </c>
@@ -2013,29 +2037,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.75">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="A9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="46">
         <v>120</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="46">
+        <v>0</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="47">
         <v>43525</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="46">
         <v>120</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="48">
         <v>43678</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="49">
         <v>12</v>
       </c>
       <c r="I9" s="16">
@@ -2242,7 +2266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -2471,7 +2495,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
       <c r="E11" s="27"/>
       <c r="H11" s="15"/>
       <c r="I11" s="16">
@@ -2678,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.45">
       <c r="E12" s="27"/>
       <c r="H12" s="15"/>
       <c r="I12" s="16">
@@ -2885,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
       <c r="E13" s="27"/>
       <c r="H13" s="15"/>
       <c r="I13" s="16">
@@ -3092,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
       <c r="E14" s="27"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -3146,7 +3170,7 @@
       <c r="BI14" s="7"/>
       <c r="BJ14" s="7"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
       <c r="E15" s="27"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -3200,7 +3224,7 @@
       <c r="BI15" s="7"/>
       <c r="BJ15" s="7"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
       <c r="E16" s="27"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -3254,7 +3278,7 @@
       <c r="BI16" s="7"/>
       <c r="BJ16" s="7"/>
     </row>
-    <row r="17" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="17" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -3307,7 +3331,7 @@
       <c r="BI17" s="7"/>
       <c r="BJ17" s="7"/>
     </row>
-    <row r="18" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="18" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -3360,7 +3384,7 @@
       <c r="BI18" s="7"/>
       <c r="BJ18" s="7"/>
     </row>
-    <row r="19" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="19" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -3413,7 +3437,7 @@
       <c r="BI19" s="7"/>
       <c r="BJ19" s="7"/>
     </row>
-    <row r="20" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="20" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -3466,7 +3490,7 @@
       <c r="BI20" s="7"/>
       <c r="BJ20" s="7"/>
     </row>
-    <row r="21" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="21" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -3519,7 +3543,7 @@
       <c r="BI21" s="7"/>
       <c r="BJ21" s="7"/>
     </row>
-    <row r="22" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="22" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -3572,7 +3596,7 @@
       <c r="BI22" s="7"/>
       <c r="BJ22" s="7"/>
     </row>
-    <row r="23" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="23" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -3625,7 +3649,7 @@
       <c r="BI23" s="7"/>
       <c r="BJ23" s="7"/>
     </row>
-    <row r="24" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="24" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -3678,7 +3702,7 @@
       <c r="BI24" s="7"/>
       <c r="BJ24" s="7"/>
     </row>
-    <row r="25" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="25" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -3731,7 +3755,7 @@
       <c r="BI25" s="7"/>
       <c r="BJ25" s="7"/>
     </row>
-    <row r="26" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="26" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -3784,7 +3808,7 @@
       <c r="BI26" s="7"/>
       <c r="BJ26" s="7"/>
     </row>
-    <row r="27" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="27" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -3837,7 +3861,7 @@
       <c r="BI27" s="7"/>
       <c r="BJ27" s="7"/>
     </row>
-    <row r="28" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="28" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -3890,7 +3914,7 @@
       <c r="BI28" s="7"/>
       <c r="BJ28" s="7"/>
     </row>
-    <row r="29" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="29" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -3943,7 +3967,7 @@
       <c r="BI29" s="7"/>
       <c r="BJ29" s="7"/>
     </row>
-    <row r="30" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="30" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -3996,7 +4020,7 @@
       <c r="BI30" s="7"/>
       <c r="BJ30" s="7"/>
     </row>
-    <row r="31" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="31" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -4049,7 +4073,7 @@
       <c r="BI31" s="7"/>
       <c r="BJ31" s="7"/>
     </row>
-    <row r="32" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="32" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -4102,7 +4126,7 @@
       <c r="BI32" s="7"/>
       <c r="BJ32" s="7"/>
     </row>
-    <row r="33" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="33" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -4155,7 +4179,7 @@
       <c r="BI33" s="7"/>
       <c r="BJ33" s="7"/>
     </row>
-    <row r="34" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="34" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -4208,7 +4232,7 @@
       <c r="BI34" s="7"/>
       <c r="BJ34" s="7"/>
     </row>
-    <row r="35" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="35" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -4261,7 +4285,7 @@
       <c r="BI35" s="7"/>
       <c r="BJ35" s="7"/>
     </row>
-    <row r="36" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="36" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -4314,7 +4338,7 @@
       <c r="BI36" s="7"/>
       <c r="BJ36" s="7"/>
     </row>
-    <row r="37" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="37" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -4367,7 +4391,7 @@
       <c r="BI37" s="7"/>
       <c r="BJ37" s="7"/>
     </row>
-    <row r="38" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="38" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -4420,7 +4444,7 @@
       <c r="BI38" s="7"/>
       <c r="BJ38" s="7"/>
     </row>
-    <row r="39" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="39" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -4473,7 +4497,7 @@
       <c r="BI39" s="7"/>
       <c r="BJ39" s="7"/>
     </row>
-    <row r="40" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="40" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -4526,7 +4550,7 @@
       <c r="BI40" s="7"/>
       <c r="BJ40" s="7"/>
     </row>
-    <row r="41" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="41" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -4579,7 +4603,7 @@
       <c r="BI41" s="7"/>
       <c r="BJ41" s="7"/>
     </row>
-    <row r="42" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="42" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -4632,7 +4656,7 @@
       <c r="BI42" s="7"/>
       <c r="BJ42" s="7"/>
     </row>
-    <row r="43" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="43" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -4685,7 +4709,7 @@
       <c r="BI43" s="7"/>
       <c r="BJ43" s="7"/>
     </row>
-    <row r="44" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="44" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
@@ -4738,7 +4762,7 @@
       <c r="BI44" s="7"/>
       <c r="BJ44" s="7"/>
     </row>
-    <row r="45" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="45" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -4791,7 +4815,7 @@
       <c r="BI45" s="7"/>
       <c r="BJ45" s="7"/>
     </row>
-    <row r="46" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="46" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
@@ -4844,7 +4868,7 @@
       <c r="BI46" s="7"/>
       <c r="BJ46" s="7"/>
     </row>
-    <row r="47" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="47" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
@@ -4897,7 +4921,7 @@
       <c r="BI47" s="7"/>
       <c r="BJ47" s="7"/>
     </row>
-    <row r="48" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="48" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -4950,7 +4974,7 @@
       <c r="BI48" s="7"/>
       <c r="BJ48" s="7"/>
     </row>
-    <row r="49" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="49" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -5003,7 +5027,7 @@
       <c r="BI49" s="7"/>
       <c r="BJ49" s="7"/>
     </row>
-    <row r="50" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="50" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -5056,7 +5080,7 @@
       <c r="BI50" s="7"/>
       <c r="BJ50" s="7"/>
     </row>
-    <row r="51" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="51" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
@@ -5109,7 +5133,7 @@
       <c r="BI51" s="7"/>
       <c r="BJ51" s="7"/>
     </row>
-    <row r="52" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="52" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
@@ -5162,7 +5186,7 @@
       <c r="BI52" s="7"/>
       <c r="BJ52" s="7"/>
     </row>
-    <row r="53" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="53" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
@@ -5215,7 +5239,7 @@
       <c r="BI53" s="7"/>
       <c r="BJ53" s="7"/>
     </row>
-    <row r="54" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="54" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -5268,7 +5292,7 @@
       <c r="BI54" s="7"/>
       <c r="BJ54" s="7"/>
     </row>
-    <row r="55" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="55" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -5321,7 +5345,7 @@
       <c r="BI55" s="7"/>
       <c r="BJ55" s="7"/>
     </row>
-    <row r="56" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="56" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
@@ -5374,7 +5398,7 @@
       <c r="BI56" s="7"/>
       <c r="BJ56" s="7"/>
     </row>
-    <row r="57" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="57" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
@@ -5427,7 +5451,7 @@
       <c r="BI57" s="7"/>
       <c r="BJ57" s="7"/>
     </row>
-    <row r="58" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="58" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
@@ -5480,7 +5504,7 @@
       <c r="BI58" s="7"/>
       <c r="BJ58" s="7"/>
     </row>
-    <row r="59" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="59" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -5533,7 +5557,7 @@
       <c r="BI59" s="7"/>
       <c r="BJ59" s="7"/>
     </row>
-    <row r="60" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="60" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
@@ -5586,7 +5610,7 @@
       <c r="BI60" s="7"/>
       <c r="BJ60" s="7"/>
     </row>
-    <row r="61" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="61" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -5639,7 +5663,7 @@
       <c r="BI61" s="7"/>
       <c r="BJ61" s="7"/>
     </row>
-    <row r="62" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="62" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
@@ -5692,7 +5716,7 @@
       <c r="BI62" s="7"/>
       <c r="BJ62" s="7"/>
     </row>
-    <row r="63" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="63" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
@@ -5745,7 +5769,7 @@
       <c r="BI63" s="7"/>
       <c r="BJ63" s="7"/>
     </row>
-    <row r="64" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="64" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
@@ -5798,7 +5822,7 @@
       <c r="BI64" s="7"/>
       <c r="BJ64" s="7"/>
     </row>
-    <row r="65" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="65" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -5851,7 +5875,7 @@
       <c r="BI65" s="7"/>
       <c r="BJ65" s="7"/>
     </row>
-    <row r="66" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="66" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
@@ -5904,7 +5928,7 @@
       <c r="BI66" s="7"/>
       <c r="BJ66" s="7"/>
     </row>
-    <row r="67" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="67" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -5957,7 +5981,7 @@
       <c r="BI67" s="7"/>
       <c r="BJ67" s="7"/>
     </row>
-    <row r="68" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="68" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
@@ -6010,7 +6034,7 @@
       <c r="BI68" s="7"/>
       <c r="BJ68" s="7"/>
     </row>
-    <row r="69" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="69" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
@@ -6063,7 +6087,7 @@
       <c r="BI69" s="7"/>
       <c r="BJ69" s="7"/>
     </row>
-    <row r="70" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="70" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
@@ -6116,7 +6140,7 @@
       <c r="BI70" s="7"/>
       <c r="BJ70" s="7"/>
     </row>
-    <row r="71" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="71" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
@@ -6169,7 +6193,7 @@
       <c r="BI71" s="7"/>
       <c r="BJ71" s="7"/>
     </row>
-    <row r="72" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="72" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
@@ -6222,7 +6246,7 @@
       <c r="BI72" s="7"/>
       <c r="BJ72" s="7"/>
     </row>
-    <row r="73" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="73" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
@@ -6275,7 +6299,7 @@
       <c r="BI73" s="7"/>
       <c r="BJ73" s="7"/>
     </row>
-    <row r="74" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="74" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
@@ -6328,7 +6352,7 @@
       <c r="BI74" s="7"/>
       <c r="BJ74" s="7"/>
     </row>
-    <row r="75" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="75" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
@@ -6381,7 +6405,7 @@
       <c r="BI75" s="7"/>
       <c r="BJ75" s="7"/>
     </row>
-    <row r="76" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="76" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
@@ -6434,7 +6458,7 @@
       <c r="BI76" s="7"/>
       <c r="BJ76" s="7"/>
     </row>
-    <row r="77" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="77" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
@@ -6487,7 +6511,7 @@
       <c r="BI77" s="7"/>
       <c r="BJ77" s="7"/>
     </row>
-    <row r="78" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="78" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
@@ -6540,7 +6564,7 @@
       <c r="BI78" s="7"/>
       <c r="BJ78" s="7"/>
     </row>
-    <row r="79" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="79" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
@@ -6593,7 +6617,7 @@
       <c r="BI79" s="7"/>
       <c r="BJ79" s="7"/>
     </row>
-    <row r="80" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="80" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
@@ -6646,7 +6670,7 @@
       <c r="BI80" s="7"/>
       <c r="BJ80" s="7"/>
     </row>
-    <row r="81" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="81" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
@@ -6699,7 +6723,7 @@
       <c r="BI81" s="7"/>
       <c r="BJ81" s="7"/>
     </row>
-    <row r="82" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="82" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
@@ -6752,7 +6776,7 @@
       <c r="BI82" s="7"/>
       <c r="BJ82" s="7"/>
     </row>
-    <row r="83" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="83" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
@@ -6805,7 +6829,7 @@
       <c r="BI83" s="7"/>
       <c r="BJ83" s="7"/>
     </row>
-    <row r="84" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="84" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
@@ -6858,7 +6882,7 @@
       <c r="BI84" s="7"/>
       <c r="BJ84" s="7"/>
     </row>
-    <row r="85" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="85" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
@@ -6911,7 +6935,7 @@
       <c r="BI85" s="7"/>
       <c r="BJ85" s="7"/>
     </row>
-    <row r="86" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="86" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
@@ -6964,7 +6988,7 @@
       <c r="BI86" s="7"/>
       <c r="BJ86" s="7"/>
     </row>
-    <row r="87" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="87" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
@@ -7017,7 +7041,7 @@
       <c r="BI87" s="7"/>
       <c r="BJ87" s="7"/>
     </row>
-    <row r="88" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="88" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
@@ -7070,7 +7094,7 @@
       <c r="BI88" s="7"/>
       <c r="BJ88" s="7"/>
     </row>
-    <row r="89" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="89" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
@@ -7123,7 +7147,7 @@
       <c r="BI89" s="7"/>
       <c r="BJ89" s="7"/>
     </row>
-    <row r="90" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="90" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
@@ -7176,7 +7200,7 @@
       <c r="BI90" s="7"/>
       <c r="BJ90" s="7"/>
     </row>
-    <row r="91" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="91" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
@@ -7229,7 +7253,7 @@
       <c r="BI91" s="7"/>
       <c r="BJ91" s="7"/>
     </row>
-    <row r="92" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="92" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
@@ -7282,7 +7306,7 @@
       <c r="BI92" s="7"/>
       <c r="BJ92" s="7"/>
     </row>
-    <row r="93" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="93" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
@@ -7335,7 +7359,7 @@
       <c r="BI93" s="7"/>
       <c r="BJ93" s="7"/>
     </row>
-    <row r="94" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="94" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
@@ -7388,7 +7412,7 @@
       <c r="BI94" s="7"/>
       <c r="BJ94" s="7"/>
     </row>
-    <row r="95" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="95" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
@@ -7441,7 +7465,7 @@
       <c r="BI95" s="7"/>
       <c r="BJ95" s="7"/>
     </row>
-    <row r="96" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="96" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
@@ -7494,7 +7518,7 @@
       <c r="BI96" s="7"/>
       <c r="BJ96" s="7"/>
     </row>
-    <row r="97" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="97" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
@@ -7547,7 +7571,7 @@
       <c r="BI97" s="7"/>
       <c r="BJ97" s="7"/>
     </row>
-    <row r="98" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="98" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
@@ -7600,7 +7624,7 @@
       <c r="BI98" s="7"/>
       <c r="BJ98" s="7"/>
     </row>
-    <row r="99" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="99" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
@@ -7653,7 +7677,7 @@
       <c r="BI99" s="7"/>
       <c r="BJ99" s="7"/>
     </row>
-    <row r="100" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="100" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
@@ -7706,7 +7730,7 @@
       <c r="BI100" s="7"/>
       <c r="BJ100" s="7"/>
     </row>
-    <row r="101" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="101" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
@@ -7759,7 +7783,7 @@
       <c r="BI101" s="7"/>
       <c r="BJ101" s="7"/>
     </row>
-    <row r="102" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="102" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
@@ -7812,7 +7836,7 @@
       <c r="BI102" s="7"/>
       <c r="BJ102" s="7"/>
     </row>
-    <row r="103" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="103" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
@@ -7865,7 +7889,7 @@
       <c r="BI103" s="7"/>
       <c r="BJ103" s="7"/>
     </row>
-    <row r="104" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="104" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
@@ -7918,7 +7942,7 @@
       <c r="BI104" s="7"/>
       <c r="BJ104" s="7"/>
     </row>
-    <row r="105" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="105" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
@@ -7971,7 +7995,7 @@
       <c r="BI105" s="7"/>
       <c r="BJ105" s="7"/>
     </row>
-    <row r="106" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="106" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
@@ -8024,7 +8048,7 @@
       <c r="BI106" s="7"/>
       <c r="BJ106" s="7"/>
     </row>
-    <row r="107" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="107" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
@@ -8077,7 +8101,7 @@
       <c r="BI107" s="7"/>
       <c r="BJ107" s="7"/>
     </row>
-    <row r="108" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="108" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
@@ -8130,7 +8154,7 @@
       <c r="BI108" s="7"/>
       <c r="BJ108" s="7"/>
     </row>
-    <row r="109" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="109" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
@@ -8183,7 +8207,7 @@
       <c r="BI109" s="7"/>
       <c r="BJ109" s="7"/>
     </row>
-    <row r="110" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="110" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
@@ -8236,7 +8260,7 @@
       <c r="BI110" s="7"/>
       <c r="BJ110" s="7"/>
     </row>
-    <row r="111" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="111" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
@@ -8289,7 +8313,7 @@
       <c r="BI111" s="7"/>
       <c r="BJ111" s="7"/>
     </row>
-    <row r="112" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="112" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
@@ -8342,7 +8366,7 @@
       <c r="BI112" s="7"/>
       <c r="BJ112" s="7"/>
     </row>
-    <row r="113" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="113" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
@@ -8395,7 +8419,7 @@
       <c r="BI113" s="7"/>
       <c r="BJ113" s="7"/>
     </row>
-    <row r="114" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="114" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
       <c r="N114" s="7"/>
@@ -8448,7 +8472,7 @@
       <c r="BI114" s="7"/>
       <c r="BJ114" s="7"/>
     </row>
-    <row r="115" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="115" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
@@ -8501,7 +8525,7 @@
       <c r="BI115" s="7"/>
       <c r="BJ115" s="7"/>
     </row>
-    <row r="116" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="116" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
@@ -8554,7 +8578,7 @@
       <c r="BI116" s="7"/>
       <c r="BJ116" s="7"/>
     </row>
-    <row r="117" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="117" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
@@ -8607,7 +8631,7 @@
       <c r="BI117" s="7"/>
       <c r="BJ117" s="7"/>
     </row>
-    <row r="118" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="118" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
@@ -8660,7 +8684,7 @@
       <c r="BI118" s="7"/>
       <c r="BJ118" s="7"/>
     </row>
-    <row r="119" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="119" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
@@ -8713,7 +8737,7 @@
       <c r="BI119" s="7"/>
       <c r="BJ119" s="7"/>
     </row>
-    <row r="120" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="120" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
@@ -8766,7 +8790,7 @@
       <c r="BI120" s="7"/>
       <c r="BJ120" s="7"/>
     </row>
-    <row r="121" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="121" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
       <c r="N121" s="7"/>
@@ -8819,7 +8843,7 @@
       <c r="BI121" s="7"/>
       <c r="BJ121" s="7"/>
     </row>
-    <row r="122" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="122" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
@@ -8872,7 +8896,7 @@
       <c r="BI122" s="7"/>
       <c r="BJ122" s="7"/>
     </row>
-    <row r="123" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="123" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
@@ -8925,7 +8949,7 @@
       <c r="BI123" s="7"/>
       <c r="BJ123" s="7"/>
     </row>
-    <row r="124" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="124" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
@@ -8978,7 +9002,7 @@
       <c r="BI124" s="7"/>
       <c r="BJ124" s="7"/>
     </row>
-    <row r="125" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="125" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
       <c r="N125" s="7"/>
@@ -9031,7 +9055,7 @@
       <c r="BI125" s="7"/>
       <c r="BJ125" s="7"/>
     </row>
-    <row r="126" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="126" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
@@ -9084,7 +9108,7 @@
       <c r="BI126" s="7"/>
       <c r="BJ126" s="7"/>
     </row>
-    <row r="127" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="127" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
@@ -9137,7 +9161,7 @@
       <c r="BI127" s="7"/>
       <c r="BJ127" s="7"/>
     </row>
-    <row r="128" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="128" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
@@ -9190,7 +9214,7 @@
       <c r="BI128" s="7"/>
       <c r="BJ128" s="7"/>
     </row>
-    <row r="129" spans="12:62" x14ac:dyDescent="0.75">
+    <row r="129" spans="12:62" x14ac:dyDescent="0.45">
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
@@ -9284,15 +9308,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F383737-46B1-48B9-B9DF-629A6A3A8D20}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -9300,38 +9325,38 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.85">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.85">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="35" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>56</v>
       </c>
@@ -9344,18 +9369,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC406C4-68D7-455B-B31E-20482C44EB5F}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="41.34375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -9363,7 +9389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -9379,7 +9405,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -9394,7 +9420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -9409,7 +9435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -9424,7 +9450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -9442,16 +9468,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D947F5-ABAD-4B7A-B08D-ED5C773977B4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>